--- a/data/trans_orig/IP12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -679,66 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>233167</v>
+        <v>12182</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>178755</v>
+        <v>15109</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>576</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>411923</v>
+        <v>27291</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>98,12%</t>
         </is>
       </c>
     </row>
@@ -750,66 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>17019</v>
+        <v>516</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>13597</v>
+        <v>1678</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>30615</v>
+        <v>2194</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>20,8%</t>
         </is>
       </c>
     </row>
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1113,66 +1113,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>158759</v>
+        <v>233167</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>161510</v>
+        <v>178755</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>95,43%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>440</v>
+        <v>576</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>320268</v>
+        <v>411923</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>94,63%</t>
         </is>
       </c>
     </row>
@@ -1184,66 +1184,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>17019</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>16257</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>9,29%</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,32%</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>16</v>
-      </c>
       <c r="I11" s="2" t="n">
-        <v>10433</v>
+        <v>13597</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>26690</v>
+        <v>30615</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>9,04%</t>
         </is>
       </c>
     </row>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1330,66 +1330,66 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>12182</v>
+        <v>158257</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>15109</v>
+        <v>153277</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>87,07%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>44</v>
+        <v>409</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>27291</v>
+        <v>311534</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>88,15%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>93,87%</t>
         </is>
       </c>
     </row>
@@ -1401,66 +1401,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>516</v>
+        <v>14951</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1678</v>
+        <v>14625</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2194</v>
+        <v>29576</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>11,85%</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>29485</v>
+        <v>341110</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1547,66 +1547,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>158257</v>
+        <v>158759</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>86,25%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>153277</v>
+        <v>161510</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>90,29%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>311534</v>
+        <v>320268</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,43%</t>
         </is>
       </c>
     </row>
@@ -1618,66 +1618,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>14951</v>
+        <v>16257</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>14625</v>
+        <v>10433</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>29576</v>
+        <v>26690</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>10,16%</t>
         </is>
       </c>
     </row>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>167902</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>341110</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>

--- a/data/trans_orig/IP12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -675,70 +675,70 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>12182</v>
+        <v>516</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>15109</v>
+        <v>1678</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>27291</v>
+        <v>2194</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>20,8%</t>
         </is>
       </c>
     </row>
@@ -746,70 +746,70 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>516</v>
+        <v>12182</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,53%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1678</v>
+        <v>15109</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>90,0%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,8%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2194</v>
+        <v>27291</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>79,2%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>98,12%</t>
         </is>
       </c>
     </row>
@@ -892,70 +892,70 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>106505</v>
+        <v>8091</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>96635</v>
+        <v>7260</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>203138</v>
+        <v>15352</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>10,46%</t>
         </is>
       </c>
     </row>
@@ -963,70 +963,70 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8091</v>
+        <v>106505</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>88,11%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>7260</v>
+        <v>96635</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>93,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>15352</v>
+        <v>203138</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>92,97%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>89,54%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>95,48%</t>
         </is>
       </c>
     </row>
@@ -1109,70 +1109,70 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>318</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>233167</v>
+        <v>17019</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>178755</v>
+        <v>13597</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>576</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>411923</v>
+        <v>30615</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -1180,70 +1180,70 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>25</v>
+        <v>318</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>17019</v>
+        <v>233167</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>13597</v>
+        <v>178755</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>89,8%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>47</v>
+        <v>576</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>30615</v>
+        <v>411923</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>94,9%</t>
         </is>
       </c>
     </row>
@@ -1326,70 +1326,70 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>158257</v>
+        <v>14951</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>86,25%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>153277</v>
+        <v>14625</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>94,7%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>409</v>
+        <v>42</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>311534</v>
+        <v>29576</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -1397,70 +1397,70 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>14951</v>
+        <v>158257</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>86,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>14625</v>
+        <v>153277</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>91,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>94,44%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>42</v>
+        <v>409</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>29576</v>
+        <v>311534</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>93,8%</t>
         </is>
       </c>
     </row>
@@ -1543,70 +1543,70 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>158759</v>
+        <v>16257</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>161510</v>
+        <v>10433</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>90,29%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>96,39%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>440</v>
+        <v>38</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>320268</v>
+        <v>26690</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -1614,70 +1614,70 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>16257</v>
+        <v>158759</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>10433</v>
+        <v>161510</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>90,45%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>26690</v>
+        <v>320268</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>89,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>94,39%</t>
         </is>
       </c>
     </row>
@@ -1760,70 +1760,70 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>897</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>668870</v>
+        <v>56834</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>865</v>
+        <v>77</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>605285</v>
+        <v>47594</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>90,77%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>1762</v>
+        <v>157</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1274154</v>
+        <v>104429</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>8,83%</t>
         </is>
       </c>
     </row>
@@ -1831,70 +1831,70 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>80</v>
+        <v>897</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>56834</v>
+        <v>668870</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>77</v>
+        <v>865</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>47594</v>
+        <v>605285</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>157</v>
+        <v>1762</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>104429</v>
+        <v>1274154</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>93,54%</t>
         </is>
       </c>
     </row>
@@ -1966,6 +1966,13 @@
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Habitat-trans_orig.xlsx
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30,2%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>21,44%</t>
         </is>
       </c>
     </row>
@@ -762,7 +762,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,53%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,8%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>98,2%</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -929,12 +929,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -950,12 +950,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -979,12 +979,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>95,54%</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1125,12 +1125,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1146,12 +1146,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>9,06%</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1217,12 +1217,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,8%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>94,84%</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>11,73%</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>86,33%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>94,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1434,12 +1434,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>87,11%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>94,44%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>93,79%</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1559,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>85,71%</t>
+          <t>85,95%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>93,77%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>90,26%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>94,42%</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1797,12 +1797,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1818,12 +1818,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>8,82%</t>
         </is>
       </c>
     </row>
@@ -1847,12 +1847,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1889,12 +1889,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>93,62%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP12_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP12_2023-Habitat-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,13 +537,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
+          <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -552,7 +552,7 @@
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="I1" s="3" t="n"/>
@@ -670,7 +670,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -679,66 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>516</v>
+        <v>8853</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1678</v>
+        <v>8855</v>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2194</v>
+        <v>17707</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>10,11%</t>
         </is>
       </c>
     </row>
@@ -750,66 +750,66 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>12182</v>
+        <v>108427</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,25%</t>
+          <t>87,31%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,69%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>15109</v>
+        <v>131557</v>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,0%</t>
+          <t>93,69%</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>44</v>
+        <v>337</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>27291</v>
+        <v>239986</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>93,13%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>95,26%</t>
         </is>
       </c>
     </row>
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -896,66 +896,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>8091</v>
+        <v>13592</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>7260</v>
+        <v>17222</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>15352</v>
+        <v>30814</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,1%</t>
         </is>
       </c>
     </row>
@@ -967,66 +967,66 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>106505</v>
+        <v>176920</v>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>89,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>96635</v>
+        <v>237813</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>93,01%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>95,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>293</v>
+        <v>576</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>203138</v>
+        <v>414734</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>94,7%</t>
         </is>
       </c>
     </row>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1113,66 +1113,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>17019</v>
+        <v>14514</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>13597</v>
+        <v>16077</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>30615</v>
+        <v>30592</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>11,42%</t>
         </is>
       </c>
     </row>
@@ -1184,66 +1184,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>233167</v>
+        <v>175071</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>258</v>
+        <v>206</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>178755</v>
+        <v>169209</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>576</v>
+        <v>409</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>411923</v>
+        <v>344279</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>91,84%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>94,63%</t>
         </is>
       </c>
     </row>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>343</v>
+        <v>226</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>250186</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>623</v>
+        <v>451</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>442538</v>
+        <v>374871</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1330,66 +1330,66 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>14951</v>
+        <v>10313</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>14625</v>
+        <v>16950</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>29576</v>
+        <v>27263</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>10,39%</t>
         </is>
       </c>
     </row>
@@ -1401,66 +1401,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>158257</v>
+        <v>157649</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>90,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>153277</v>
+        <v>164288</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>87,11%</t>
+          <t>86,34%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>94,8%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>311534</v>
+        <v>321938</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>89,61%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>94,29%</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
@@ -1514,10 +1514,10 @@
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>341110</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1547,40 +1547,40 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>16257</v>
+        <v>47272</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>10433</v>
+        <v>59103</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1589,24 +1589,24 @@
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>26690</v>
+        <v>106375</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>8,73%</t>
         </is>
       </c>
     </row>
@@ -1618,35 +1618,35 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>216</v>
+        <v>865</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>158759</v>
+        <v>618068</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>91,02%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>224</v>
+        <v>897</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>161510</v>
+        <v>702869</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1656,28 +1656,28 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>440</v>
+        <v>1762</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>320268</v>
+        <v>1320937</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>93,75%</t>
         </is>
       </c>
     </row>
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>175016</v>
+        <v>665340</v>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
@@ -1710,10 +1710,10 @@
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
@@ -1731,10 +1731,10 @@
         </is>
       </c>
       <c r="M18" s="2" t="n">
-        <v>478</v>
+        <v>1919</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>346958</v>
+        <v>1427312</v>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
@@ -1753,237 +1753,19 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>56834</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>7,83%</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>9,88%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>47594</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>7,29%</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>9,14%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>104429</v>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>6,38%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>8,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>897</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>668870</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>92,17%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>90,12%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>93,79%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>865</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>605285</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>92,71%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>90,86%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>94,21%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>1762</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>1274154</v>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>92,42%</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>91,18%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>93,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>977</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>725704</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>942</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>652879</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1919</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>1378583</v>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="M1:Q1"/>
